--- a/medicine/Psychotrope/Château_Rayas/Château_Rayas.xlsx
+++ b/medicine/Psychotrope/Château_Rayas/Château_Rayas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Rayas</t>
+          <t>Château_Rayas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Rayas, situé à Châteauneuf-du-Pape dans le département du Vaucluse en région Provence-Alpes-Côte d'Azur (France), est un domaine viticole appartenant à la famille Reynaud. Son vignoble s'étend sur 15 hectares et produits des vins rouge et blanc en appellation châteauneuf-du-pape et côtes-du-rhône.
-Le château Rayas fait partie des vins les plus prestigieux du vignoble des côtes du Rhône[1] et il est le Châteauneuf-du-pape le plus recherché au monde[2].
+Le château Rayas fait partie des vins les plus prestigieux du vignoble des côtes du Rhône et il est le Châteauneuf-du-pape le plus recherché au monde.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Rayas</t>
+          <t>Château_Rayas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Reynaud (1835-1910), notaire dans les environs d’Avignon, atteint de surdité, décide de se reconvertir dans le vin. Il achète une dizaine d'hectares de vignes, sur le lieu-dit Rayas à Châteauneuf-du-Pape.
 En 1920, son fils Louis Reynaud reprend la direction du domaine. Il achète en 1935 le domaine des Tours, situé à Sarrians et en 1945 le château de Fonsalette, situé à Lagarde-Paréol.
 En 1978, Jacques Reynaud, le fils cadet de Louis, succède à son père.
-En 1997, à la mort de Jacques Reynaud et sans descendance, son neveu Emmanuel Reynaud reprend la direction du domaine[3].
+En 1997, à la mort de Jacques Reynaud et sans descendance, son neveu Emmanuel Reynaud reprend la direction du domaine.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Rayas</t>
+          <t>Château_Rayas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Rayas possède un terroir sablonneux, entouré de bois, très particulier pour l'appellation Châteauneuf-du-Pape le plus souvent caractérisée par des galets roulés.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Rayas</t>
+          <t>Château_Rayas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
